--- a/ch2/resource/sample.xlsx
+++ b/ch2/resource/sample.xlsx
@@ -8,14 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="급여명세1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="급여명세" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="시트2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="시트21" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="시트22" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Copied Sheet" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Copied Sheet1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="시트2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="급여명세" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Copied Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,6 +467,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00ff66ff"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -482,7 +478,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -508,24 +512,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+    <tabColor rgb="00ff66ff"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -547,94 +534,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00ff66ff"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00ff66ff"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>